--- a/Assignments/Assignment 2/Results Assignment 1,2 - with names.xlsx
+++ b/Assignments/Assignment 2/Results Assignment 1,2 - with names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bache\Documents\Studium&amp;Beruf\Uni\Master\1.Semester\Survey Tut\Assignment 2_ Survey adjustments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\Studium\Tutorials\Tutorat ISM\Survey_Tutorial_24_25\Assignments\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EDC0A-B40B-41F1-AFFD-C49FD4F45554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0198A5AB-66E5-40AC-AFBE-E268DA1CD91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>Carla Stickel</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -453,8 +456,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,18 +738,18 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="2" width="34.36328125" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -760,7 +763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -770,8 +773,11 @@
       <c r="C2" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -781,8 +787,11 @@
       <c r="C3" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -792,8 +801,11 @@
       <c r="C4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -807,7 +819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -817,8 +829,11 @@
       <c r="C6" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -832,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -842,8 +857,11 @@
       <c r="C8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -854,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -864,8 +882,11 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -879,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -893,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -907,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -917,8 +938,11 @@
       <c r="C14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -928,8 +952,11 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -943,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -953,8 +980,11 @@
       <c r="C17" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -968,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -982,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -996,7 +1026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1010,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1020,8 +1050,11 @@
       <c r="C22" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1031,8 +1064,11 @@
       <c r="C23" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1060,7 +1096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1088,7 +1124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -1102,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1112,8 +1148,11 @@
       <c r="C29" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1123,8 +1162,11 @@
       <c r="C30" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1134,8 +1176,11 @@
       <c r="C31" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1145,8 +1190,11 @@
       <c r="C32" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1160,7 +1208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1170,8 +1218,11 @@
       <c r="C34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -1185,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1199,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1213,7 +1264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1227,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -1241,7 +1292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1255,7 +1306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1269,7 +1320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -1283,7 +1334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1297,7 +1348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1311,7 +1362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -1325,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -1339,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -1353,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -1367,7 +1418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -1377,8 +1428,11 @@
       <c r="C49" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -1392,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1402,8 +1456,11 @@
       <c r="C51" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1413,8 +1470,11 @@
       <c r="C52" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1424,8 +1484,11 @@
       <c r="C53" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -1439,7 +1502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -1453,7 +1516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -1463,8 +1526,11 @@
       <c r="C56" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D56" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -1474,8 +1540,11 @@
       <c r="C57" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1485,8 +1554,11 @@
       <c r="C58" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D58" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -1496,8 +1568,11 @@
       <c r="C59" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1507,8 +1582,11 @@
       <c r="C60" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -1517,6 +1595,9 @@
       </c>
       <c r="C61" s="2">
         <v>7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assignments/Assignment 2/Results Assignment 1,2 - with names.xlsx
+++ b/Assignments/Assignment 2/Results Assignment 1,2 - with names.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\Studium\Tutorials\Tutorat ISM\Survey_Tutorial_24_25\Assignments\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bache\Documents\Studium&amp;Beruf\Uni\Master\1.Semester\Survey Tut\Survey_Tutorial_24_25\Assignments\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0198A5AB-66E5-40AC-AFBE-E268DA1CD91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA9256-97AC-45CE-B671-4017C9F16EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -456,8 +456,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,19 +737,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="34.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -763,7 +763,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -777,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -791,7 +791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -805,7 +805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -833,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -847,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -861,7 +861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -871,8 +871,11 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -886,7 +889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -900,7 +903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -914,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -928,7 +931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -942,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -956,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -970,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -984,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1050,11 +1053,11 @@
       <c r="C22" s="1">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>118</v>
       </c>

--- a/Assignments/Assignment 2/Results Assignment 1,2 - with names.xlsx
+++ b/Assignments/Assignment 2/Results Assignment 1,2 - with names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\Studium\Tutorials\Tutorat ISM\Survey_Tutorial_24_25\Assignments\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0198A5AB-66E5-40AC-AFBE-E268DA1CD91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D3E1A-9353-4B51-894C-9DD4922E57C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -397,9 +397,6 @@
   </si>
   <si>
     <t>Carla Stickel</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -737,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,6 +868,9 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1050,8 +1050,8 @@
       <c r="C22" s="1">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>124</v>
+      <c r="D22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1526,8 +1526,8 @@
       <c r="C56" s="2">
         <v>6.5</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>124</v>
+      <c r="D56" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1582,8 +1582,8 @@
       <c r="C60" s="1">
         <v>7</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>124</v>
+      <c r="D60" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
